--- a/Data/drp/drp_tet_2.xlsx
+++ b/Data/drp/drp_tet_2.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,43 +449,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K2">
         <v>6</v>
       </c>
       <c r="L2">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M2">
         <v>6</v>
       </c>
       <c r="N2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>6</v>
@@ -496,43 +496,43 @@
         <v>0.25</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K3">
         <v>6</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M3">
         <v>6</v>
       </c>
       <c r="N3">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -543,43 +543,43 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M4">
         <v>6</v>
       </c>
       <c r="N4">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O4">
         <v>6</v>
@@ -590,43 +590,43 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>6</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M5">
         <v>6</v>
       </c>
       <c r="N5">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="O5">
         <v>6</v>
@@ -637,43 +637,43 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <v>6</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M6">
         <v>6</v>
       </c>
       <c r="N6">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="O6">
         <v>6</v>
@@ -684,43 +684,43 @@
         <v>4</v>
       </c>
       <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>22</v>
-      </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -731,43 +731,43 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="M8">
         <v>3</v>
       </c>
       <c r="N8">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O8">
         <v>6</v>
@@ -778,43 +778,43 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O9">
         <v>6</v>
@@ -825,46 +825,46 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>1</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
